--- a/data/trans_bre/CONS_DIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,23; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,13; 1,83</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,2%</t>
+          <t>-89,87%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 1,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 1,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,74</t>
+          <t>-3,24; -0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,61; 534,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,18; 195,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -7,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-46,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-30,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-9,2%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,0</t>
+          <t>-2,86; 0,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>-4,14; 2,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,0</t>
+          <t>-1,92; 1,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,57; 19,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,92; 150,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,51; 178,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-66,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-58,05%</t>
+          <t>-60,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-29,21%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,1</t>
+          <t>-9,6; -4,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,34</t>
+          <t>-11,4; -3,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,96</t>
+          <t>-6,84; 0,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,56; -45,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,79; -38,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,47; 16,03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-89,14%</t>
+          <t>-40,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-50,8%</t>
+          <t>-52,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>-31,0%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -0,63</t>
+          <t>-9,02; -1,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 0,12</t>
+          <t>-20,59; -0,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,85</t>
+          <t>-11,57; -2,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3,19</t>
+          <t>-56,74; -12,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,42; 26,34</t>
+          <t>-86,17; -3,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,1; 205,77</t>
+          <t>-47,74; -11,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>-31,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-50,42%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-56,99%</t>
+          <t>-3,16%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,68</t>
+          <t>-11,13; -1,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -0,99</t>
+          <t>-5,75; 8,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; -0,43</t>
+          <t>-6,42; 5,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-65,46; 156,74</t>
+          <t>-45,89; -10,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -21,79</t>
+          <t>-19,35; 40,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-77,37; -14,01</t>
+          <t>-22,55; 22,7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-31,68%</t>
+          <t>-34,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-47,65%</t>
+          <t>-14,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-62,46%</t>
+          <t>-11,34%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 0,98</t>
+          <t>-3,8; -1,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -3,32</t>
+          <t>-2,95; 1,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,28; -3,4</t>
+          <t>-1,95; 0,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 14,54</t>
+          <t>-45,81; -21,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,67; -29,33</t>
+          <t>-37,91; 27,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,97; -40,83</t>
+          <t>-24,08; 8,15</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-6,79</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-8,12</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-5,03</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-30,31%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-38,99%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-38,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-11,7; -1,9</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-15,56; -3,21</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; -2,05</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-46,22; -8,59</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-67,77; -15,91</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-55,27; -17,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-5,63</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-4,56%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-27,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-6,74; 4,19</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 6,47</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; -1,89</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-22,62; 17,69</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-13,07; 26,4</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-41,91; -9,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-20,33%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-17,05%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-31,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; -0,62</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; -0,32</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; -1,17</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-32,35; -6,5</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-28,99; -4,13</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-41,82; -19,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_DIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,0</t>
+          <t>-1,96; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,83</t>
+          <t>0,11; 3,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,49</t>
+          <t>-1,41; 1,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,23</t>
+          <t>-2,09; 1,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-87,61; 534,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,18; 195,33</t>
+          <t>-75,64; 223,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-46,25%</t>
+          <t>-44,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,11</t>
+          <t>-3,03; 0,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,41</t>
+          <t>-4,43; 2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,57; 19,08</t>
+          <t>-75,21; 14,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 150,08</t>
+          <t>-69,05; 145,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-66,48%</t>
+          <t>-72,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; -4,02</t>
+          <t>-9,11; -4,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,4; -3,96</t>
+          <t>-11,43; -3,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-79,56; -45,57</t>
+          <t>-83,81; -55,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,79; -38,21</t>
+          <t>-75,83; -36,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-40,29%</t>
+          <t>-42,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -1,61</t>
+          <t>-9,4; -1,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,59; -0,89</t>
+          <t>-18,04; -1,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,74; -12,98</t>
+          <t>-58,08; -15,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,17; -3,22</t>
+          <t>-89,83; -3,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-31,6%</t>
+          <t>-40,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -1,92</t>
+          <t>-14,13; -4,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,42</t>
+          <t>-5,72; 8,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-45,89; -10,2</t>
+          <t>-54,23; -23,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 40,93</t>
+          <t>-18,91; 39,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-34,98%</t>
+          <t>-38,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,8; -1,5</t>
+          <t>-3,85; -1,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,5</t>
+          <t>-3,1; 1,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -21,9</t>
+          <t>-49,07; -25,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 27,06</t>
+          <t>-40,73; 18,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_DIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIA-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,27 +604,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,54</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 0,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,96; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -684,27 +684,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,96</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,11; 3,04</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,14</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-10,46%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-89,87%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>14,56%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-21,04%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-89,87%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,92; 1,57</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; -0,54</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,41; 1,37</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 1,32</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; -0,54</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-69,69; 237,37</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -7,5</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-75,64; 223,57</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -7,5</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-3,15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-1,35</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-55,15%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-9,2%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-44,66%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-30,24%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-9,2%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-5,66; -0,6</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 1,49</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-3,03; 0,15</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 2,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 1,49</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-75,65; -13,23</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-70,51; 178,79</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-75,21; 14,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-69,05; 145,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-70,51; 178,79</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-7,64</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-6,31</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,4</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,66</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-61,75%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-29,21%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-72,29%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-60,33%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-29,21%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-11,53; -4,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 0,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-9,11; -4,09</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,43; -3,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,84; 0,93</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-76,56; -39,36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-58,47; 16,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-83,81; -55,71</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-75,83; -36,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-58,47; 16,03</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-6,88</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-5,94</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-9,19</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,88</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-10,92%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-31,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-42,17%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-52,22%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-31,0%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-6,97; 3,33</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-11,57; -2,21</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-9,4; -1,98</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,04; -1,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-11,57; -2,21</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-34,89; 25,57</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-47,74; -11,36</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-58,08; -15,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-89,83; -3,5</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-47,74; -11,36</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-9,01</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-3,16%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-40,33%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,16%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-6,08; 7,68</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 5,08</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-14,13; -4,71</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 8,14</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 5,08</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-20,14; 36,21</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-22,55; 22,7</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-54,23; -23,68</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-18,91; 39,64</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-22,55; 22,7</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-2,74</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>-15,2%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-11,34%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>-38,29%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-14,98%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-11,34%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-2,49; 0,2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 0,57</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-3,85; -1,75</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 1,17</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 0,57</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-28,99; 2,96</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-24,08; 8,15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-49,07; -25,57</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-40,73; 18,53</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-24,08; 8,15</t>
         </is>
       </c>
     </row>
